--- a/biology/Zoologie/William_Brewster/William_Brewster.xlsx
+++ b/biology/Zoologie/William_Brewster/William_Brewster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Brewster est un ornithologue américain, né le 5 juillet 1851 et mort le 11 juillet 1919.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Brewster est le conservateur du département ornithologique du Museum of Comparative Zoology de l'université Harvard de 1886 à 1900. Il est le cofondateur avec Elliott Coues et Joel Asaph Allen de l'American Ornithologists' Union en 1883 qu'il dirige de 1895 à 1898. Il est l'auteur de Birds of the Cape Regions of Lower California (1902) et de Birds of the Cambridge Region of Massachusetts (1906).
-Il est enterré dans le cimetière de Mount Auburn à Cambridge au Massachusetts[2](p140).
+Il est enterré dans le cimetière de Mount Auburn à Cambridge au Massachusetts(p140).
 </t>
         </is>
       </c>
